--- a/LightDrumFirmware/Nextion/DisplayColors.xlsx
+++ b/LightDrumFirmware/Nextion/DisplayColors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -40,39 +40,92 @@
     <t xml:space="preserve">Blue</t>
   </si>
   <si>
+    <t xml:space="preserve">HEX</t>
+  </si>
+  <si>
     <t xml:space="preserve">Page Background</t>
   </si>
   <si>
+    <t xml:space="preserve">Page Sub-Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8c3030</t>
+  </si>
+  <si>
     <t xml:space="preserve">Text</t>
   </si>
   <si>
+    <t xml:space="preserve">FFFFFF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Button Normal</t>
   </si>
   <si>
+    <t xml:space="preserve">8F1B05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Button Border</t>
   </si>
   <si>
     <t xml:space="preserve">Button Click</t>
   </si>
   <si>
+    <t xml:space="preserve">C62306</t>
+  </si>
+  <si>
     <t xml:space="preserve">Progress Bar Normal</t>
   </si>
   <si>
+    <t xml:space="preserve">AB3416</t>
+  </si>
+  <si>
     <t xml:space="preserve">Progress Bar Highlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC8018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph Background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5C0C0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph Grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3641A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph Trace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231AA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slider Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slider High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slider Center</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -90,7 +143,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +158,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8C3030"/>
+        <bgColor rgb="FFAB3416"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFAFAFA"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
@@ -118,7 +177,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF690800"/>
-        <bgColor rgb="FF721010"/>
+        <bgColor rgb="FF5C0C0C"/>
       </patternFill>
     </fill>
     <fill>
@@ -130,13 +189,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAB3416"/>
-        <bgColor rgb="FFC62306"/>
+        <bgColor rgb="FF8C3030"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDC8018"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5C0C0C"/>
+        <bgColor rgb="FF690800"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3641A"/>
+        <bgColor rgb="FFAB3416"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF231AA3"/>
+        <bgColor rgb="FF000080"/>
       </patternFill>
     </fill>
   </fills>
@@ -174,36 +251,64 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,16 +334,16 @@
       <rgbColor rgb="FF690800"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FFA3641A"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF8F1B05"/>
+      <rgbColor rgb="FF8C3030"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FF5C0C0C"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
@@ -271,8 +376,8 @@
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFAB3416"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF8F1B05"/>
+      <rgbColor rgb="FF231AA3"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -280,161 +385,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="5.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1" t="n">
+        <v>28802</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>721010</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="D3" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="n">
+        <v>63422</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="1" t="n">
+        <v>35008</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="1" t="n">
+        <v>26688</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>690800</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="n">
+        <v>49408</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="0" t="n">
-        <v>28802</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="n">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="1" t="n">
+        <v>43426</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="1" t="n">
+        <v>56323</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="1" t="n">
+        <v>22625</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="1" t="n">
+        <v>41763</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="1" t="n">
+        <v>8404</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1" t="n">
+        <v>35008</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="1" t="n">
+        <v>56323</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="1" t="n">
+        <v>49408</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="0" t="n">
-        <v>63422</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="0" t="n">
-        <v>35008</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="0" t="n">
-        <v>26688</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="0" t="n">
-        <v>49408</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>198</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="0" t="n">
-        <v>43426</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>171</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="0" t="n">
-        <v>56323</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>220</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/LightDrumFirmware/Nextion/DisplayColors.xlsx
+++ b/LightDrumFirmware/Nextion/DisplayColors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -106,10 +106,16 @@
     <t xml:space="preserve">Slider Low</t>
   </si>
   <si>
+    <t xml:space="preserve">Slider Center</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slider High</t>
   </si>
   <si>
-    <t xml:space="preserve">Slider Center</t>
+    <t xml:space="preserve">Slider Center Highlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F7EA46</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +220,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF231AA3"/>
         <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7EA46"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -251,7 +263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -260,11 +272,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,6 +321,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,7 +344,7 @@
       <rgbColor rgb="FFC62306"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFF7EA46"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF690800"/>
@@ -389,10 +405,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -453,6 +469,9 @@
         <v>8</v>
       </c>
       <c r="B3" s="5"/>
+      <c r="C3" s="1" t="n">
+        <v>35206</v>
+      </c>
       <c r="D3" s="1" t="n">
         <v>140</v>
       </c>
@@ -716,6 +735,27 @@
       </c>
       <c r="G15" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="1" t="n">
+        <v>63304</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/LightDrumFirmware/Nextion/DisplayColors.xlsx
+++ b/LightDrumFirmware/Nextion/DisplayColors.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Text</t>
   </si>
   <si>
-    <t xml:space="preserve">FFFFFF</t>
+    <t xml:space="preserve">F5F5F5</t>
   </si>
   <si>
     <t xml:space="preserve">Button Normal</t>
@@ -170,7 +170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAFA"/>
+        <fgColor rgb="FFF5F5F5"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -340,7 +340,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFAFAFA"/>
+      <rgbColor rgb="FFF5F5F5"/>
       <rgbColor rgb="FFC62306"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -494,13 +494,13 @@
         <v>63422</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
